--- a/results/Homeopathy_excluded/mod3.antielite_salience.slopes.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.antielite_salience.slopes.eff.MN.xlsx
@@ -419,25 +419,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0113103963492723</v>
+        <v>-0.0113097857395444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.044264740484147</v>
+        <v>0.0442646052965614</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0980676934832125</v>
+        <v>-0.0980668179106856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0754469007846679</v>
+        <v>0.0754472464315969</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.25551705997967</v>
+        <v>-0.255504045812037</v>
       </c>
       <c r="I2" t="n">
-        <v>0.798323768864545</v>
+        <v>0.798333819183873</v>
       </c>
     </row>
     <row r="3">
@@ -448,25 +448,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28185665100215</v>
+        <v>0.28185359718709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107306733024951</v>
+        <v>0.107306444494961</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0715393189745919</v>
+        <v>0.0715368306679195</v>
       </c>
       <c r="G3" t="n">
-        <v>0.492173983029707</v>
+        <v>0.49217036370626</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62664460147728</v>
+        <v>2.62662320528498</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00862313453935636</v>
+        <v>0.00862367670635599</v>
       </c>
     </row>
     <row r="4">
@@ -477,25 +477,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.166675862378423</v>
+        <v>-0.166674080253655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0526072124311132</v>
+        <v>0.0526070634424658</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.269784104070453</v>
+        <v>-0.269782029933302</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0635676206863934</v>
+        <v>-0.0635661305740085</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.16830819722063</v>
+        <v>-3.16828329404738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00153328883833688</v>
+        <v>0.00153342019420568</v>
       </c>
     </row>
     <row r="5">
@@ -506,25 +506,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.103870392274454</v>
+        <v>-0.10386973119389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0401829646607143</v>
+        <v>0.0401828495577379</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1826275558015</v>
+        <v>-0.182626669123248</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0251132287474086</v>
+        <v>-0.0251127932645327</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.58493600836788</v>
+        <v>-2.5849269610569</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00973970721629171</v>
+        <v>0.00973996278623423</v>
       </c>
     </row>
     <row r="6">
@@ -535,25 +535,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00510608911755707</v>
+        <v>-0.00510654411061647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0412127936555173</v>
+        <v>0.0412126671400468</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0858816803846518</v>
+        <v>-0.0858818874119455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0756695021495376</v>
+        <v>0.0756687991907125</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.123895729084444</v>
+        <v>-0.123907149548552</v>
       </c>
       <c r="I6" t="n">
-        <v>0.901397834591071</v>
+        <v>0.901388792054698</v>
       </c>
     </row>
     <row r="7">
@@ -564,25 +564,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0459449483014569</v>
+        <v>0.0459454903033024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0933216291950843</v>
+        <v>0.0933212774889951</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.13696208389951</v>
+        <v>-0.136960852566396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.228851980502424</v>
+        <v>0.228851833173001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.492329042021022</v>
+        <v>0.49233670540698</v>
       </c>
       <c r="I7" t="n">
-        <v>0.62248675263304</v>
+        <v>0.622481336041583</v>
       </c>
     </row>
     <row r="8">
@@ -593,25 +593,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0233565162593958</v>
+        <v>-0.023356074656203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0409139974273965</v>
+        <v>0.0409138696208411</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.103546477680657</v>
+        <v>-0.103545785581219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0568334451618659</v>
+        <v>0.056833636268813</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.570868595786633</v>
+        <v>-0.570859585579402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.568088720080949</v>
+        <v>0.568094828230148</v>
       </c>
     </row>
     <row r="9">
@@ -622,25 +622,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0174823429245041</v>
+        <v>-0.0174828715364829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0342128086293188</v>
+        <v>0.034212682381898</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0845382156479301</v>
+        <v>-0.084538496819511</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495735297989219</v>
+        <v>0.0495727537465452</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.510988241682168</v>
+        <v>-0.511005578028957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.609359290280025</v>
+        <v>0.609347150896615</v>
       </c>
     </row>
     <row r="10">
@@ -651,25 +651,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00109821811415818</v>
+        <v>0.00109669751831141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0802444708330443</v>
+        <v>0.080244221906316</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.156178054677083</v>
+        <v>-0.156179087385508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1583744909054</v>
+        <v>0.158372482422131</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0136859038729674</v>
+        <v>0.0136669967289581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.98908056947563</v>
+        <v>0.989095653783133</v>
       </c>
     </row>
     <row r="11">
@@ -680,25 +680,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.189966754399236</v>
+        <v>-0.189962616580485</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178042047326845</v>
+        <v>0.178041319757526</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.538922754893627</v>
+        <v>-0.538917191065216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.158989246095155</v>
+        <v>0.158991957904246</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.0669769150121</v>
+        <v>-1.06695803445624</v>
       </c>
       <c r="I11" t="n">
-        <v>0.285982260443229</v>
+        <v>0.285990786538168</v>
       </c>
     </row>
     <row r="12">
@@ -709,25 +709,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119962829859632</v>
+        <v>0.119961930941249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0671681549012326</v>
+        <v>0.0671679029027542</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0116843346547918</v>
+        <v>-0.0116847396652324</v>
       </c>
       <c r="G12" t="n">
-        <v>0.251609994374055</v>
+        <v>0.251608601547731</v>
       </c>
       <c r="H12" t="n">
-        <v>1.78600752151121</v>
+        <v>1.78600083904555</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0740980403058678</v>
+        <v>0.0740991222831797</v>
       </c>
     </row>
     <row r="13">
@@ -738,25 +738,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.068905706425446</v>
+        <v>0.0689039881209244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0635030639436547</v>
+        <v>0.0635028149606776</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0555580118120612</v>
+        <v>-0.0555592421189149</v>
       </c>
       <c r="G13" t="n">
-        <v>0.193369424662953</v>
+        <v>0.193367218360764</v>
       </c>
       <c r="H13" t="n">
-        <v>1.08507687891383</v>
+        <v>1.08505407458853</v>
       </c>
       <c r="I13" t="n">
-        <v>0.277887606764503</v>
+        <v>0.277897706157544</v>
       </c>
     </row>
   </sheetData>
